--- a/O1/Analisi/ottica 1.xlsx
+++ b/O1/Analisi/ottica 1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>q (media)</t>
   </si>
@@ -133,9 +133,6 @@
     <t>sigma p</t>
   </si>
   <si>
-    <t>sigma h</t>
-  </si>
-  <si>
     <t>sigma m con q e p</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
     <t>D</t>
   </si>
   <si>
+    <t>f div</t>
+  </si>
+  <si>
     <t>m div con q e p</t>
   </si>
   <si>
@@ -187,9 +187,6 @@
     <t>sigma x</t>
   </si>
   <si>
-    <t>sigma m</t>
-  </si>
-  <si>
     <t>1/f div</t>
   </si>
   <si>
@@ -209,6 +206,42 @@
   </si>
   <si>
     <t>sigma m con h e h1</t>
+  </si>
+  <si>
+    <t>sigma h1</t>
+  </si>
+  <si>
+    <t>sigma m div</t>
+  </si>
+  <si>
+    <t>m conv</t>
+  </si>
+  <si>
+    <t>sigma m conv</t>
+  </si>
+  <si>
+    <t>tragedia</t>
+  </si>
+  <si>
+    <t>media pesata delle f div</t>
+  </si>
+  <si>
+    <t>1/(sigma i quadro</t>
+  </si>
+  <si>
+    <t>xi/(sigma i quadro)</t>
+  </si>
+  <si>
+    <t>somme</t>
+  </si>
+  <si>
+    <t>risultati</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>sigma media</t>
   </si>
 </sst>
 </file>
@@ -292,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -302,6 +335,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -309,6 +345,58 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connettore 2 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10467975" y="3867150"/>
+          <a:ext cx="9525" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,21 +684,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" customWidth="1"/>
     <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -652,19 +741,19 @@
         <v>37</v>
       </c>
       <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
       </c>
       <c r="S1" t="s">
         <v>51</v>
@@ -707,7 +796,7 @@
         <v>24.144148189727758</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K4" si="0">0.05</f>
+        <f>0.05</f>
         <v>0.05</v>
       </c>
       <c r="L2">
@@ -729,8 +818,8 @@
         <v>1.7680956308464529E-3</v>
       </c>
       <c r="Q2">
-        <f>P2/I2</f>
-        <v>4.2689162924766946E-2</v>
+        <f>(J2^2)*P2</f>
+        <v>1.0306934757510051</v>
       </c>
       <c r="S2">
         <f>SUM(J2:J13)/12</f>
@@ -748,7 +837,7 @@
         <v>114.2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D4" si="1">(B3+C3)/2</f>
+        <f t="shared" ref="D3:D4" si="0">(B3+C3)/2</f>
         <v>111.75</v>
       </c>
       <c r="E3">
@@ -758,23 +847,23 @@
         <v>0.9</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G13" si="2">D3/A3</f>
+        <f t="shared" ref="G3:G13" si="1">D3/A3</f>
         <v>3.6282467532467533</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="3">E3/F3</f>
+        <f t="shared" ref="H3:H13" si="2">E3/F3</f>
         <v>3.5833333333333335</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I13" si="4">1/D3+1/A3</f>
+        <f t="shared" ref="I3:I13" si="3">1/D3+1/A3</f>
         <v>4.141607832883E-2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J13" si="5">1/I3</f>
+        <f t="shared" ref="J3:J13" si="4">1/I3</f>
         <v>24.145212206243428</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K3:K13" si="5">0.05</f>
         <v>0.05</v>
       </c>
       <c r="L3">
@@ -796,8 +885,8 @@
         <v>1.6839070175948107E-3</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q13" si="9">P3/I3</f>
-        <v>4.0658292275409187E-2</v>
+        <f t="shared" ref="Q3:Q13" si="9">(J3^2)*P3</f>
+        <v>0.98170309493322294</v>
       </c>
       <c r="S3" t="s">
         <v>54</v>
@@ -814,7 +903,7 @@
         <v>89.4</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>91.85</v>
       </c>
       <c r="E4">
@@ -824,23 +913,23 @@
         <v>0.9</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.8003048780487805</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.7666666666666671</v>
       </c>
       <c r="I4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1375121154586615E-2</v>
       </c>
       <c r="J4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.169113517849979</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="L4">
@@ -863,10 +952,10 @@
       </c>
       <c r="Q4">
         <f t="shared" si="9"/>
-        <v>3.9121872627163413E-2</v>
+        <v>0.94554098055678026</v>
       </c>
       <c r="S4">
-        <v>0.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -883,23 +972,23 @@
         <v>0.9</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2234957020057307</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.0555555555555558</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1539893067084159E-2</v>
       </c>
       <c r="J5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.073244444444445</v>
       </c>
       <c r="K5">
-        <f>0.05</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="L5">
@@ -922,7 +1011,7 @@
       </c>
       <c r="Q5">
         <f t="shared" si="9"/>
-        <v>3.7816372442255192E-2</v>
+        <v>0.91036277780456187</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -939,23 +1028,23 @@
         <v>0.9</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8861788617886177</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.8777777777777778</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1468087094664055E-2</v>
       </c>
       <c r="J6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.114929577464785</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K13" si="10">0.05</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="L6">
@@ -978,7 +1067,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="9"/>
-        <v>3.6984370777521217E-2</v>
+        <v>0.89187549676677058</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -995,23 +1084,23 @@
         <v>0.9</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6237113402061858</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1646211749304538E-2</v>
       </c>
       <c r="J7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.011787819253435</v>
       </c>
       <c r="K7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="L7">
@@ -1034,7 +1123,7 @@
       </c>
       <c r="Q7">
         <f t="shared" si="9"/>
-        <v>3.6340598579890269E-2</v>
+        <v>0.87260274232498791</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1053,23 +1142,23 @@
         <v>0.9</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4338235294117647</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4222222222222223</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1603821015585726E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.036253776435043</v>
       </c>
       <c r="K8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="L8">
@@ -1092,7 +1181,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="9"/>
-        <v>3.5912606677977271E-2</v>
+        <v>0.86320452788515767</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1110,23 +1199,23 @@
         <v>0.9</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2827102803738317</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2555555555555553</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1579422229031548E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.050358239508697</v>
       </c>
       <c r="K9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="L9">
@@ -1149,7 +1238,7 @@
       </c>
       <c r="Q9">
         <f t="shared" si="9"/>
-        <v>3.5625455345895875E-2</v>
+        <v>0.85680496351441593</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1167,23 +1256,23 @@
         <v>0.9</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1540178571428572</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1663788339320253E-2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.001658031088084</v>
       </c>
       <c r="K10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="L10">
@@ -1206,7 +1295,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="9"/>
-        <v>3.5445603050185098E-2</v>
+        <v>0.85075324311623557</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1224,23 +1313,23 @@
         <v>0.9</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0490405117270789</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0166666666666666</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1647164872501599E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.011238293444332</v>
       </c>
       <c r="K11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="L11">
@@ -1263,7 +1352,7 @@
       </c>
       <c r="Q11">
         <f t="shared" si="9"/>
-        <v>3.5365463516067917E-2</v>
+        <v>0.84916857184241834</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1281,23 +1370,23 @@
         <v>0.9</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.96932515337423308</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1546944164013361E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.06915887850467</v>
       </c>
       <c r="K12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="L12">
@@ -1320,7 +1409,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="9"/>
-        <v>3.5359627788428508E-2</v>
+        <v>0.85107649912447447</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1337,23 +1426,23 @@
         <v>0.9</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.89194499017681728</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1672797140458531E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23.996469366562824</v>
       </c>
       <c r="K13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="L13">
@@ -1376,38 +1465,41 @@
       </c>
       <c r="Q13">
         <f t="shared" si="9"/>
-        <v>3.5412955190126119E-2</v>
+        <v>0.84978589439932328</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
       </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
         <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
         <v>2</v>
@@ -1422,22 +1514,25 @@
         <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>40</v>
       </c>
       <c r="P17" t="s">
         <v>55</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="R17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" t="s">
         <v>61</v>
-      </c>
-      <c r="T17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1456,13 +1551,17 @@
       <c r="E18">
         <v>0.78500000000000003</v>
       </c>
+      <c r="F18">
+        <f>1/G18</f>
+        <v>-20.122321783032479</v>
+      </c>
       <c r="G18">
         <f>1/B18+1/C18</f>
         <v>-4.9696054500192856E-2</v>
       </c>
       <c r="H18">
-        <f>ABS(B18/C18)</f>
-        <v>2.515729662255882</v>
+        <f>ABS(C18/B18)</f>
+        <v>0.39749899005574751</v>
       </c>
       <c r="I18">
         <f>E18/J18</f>
@@ -1481,6 +1580,34 @@
       <c r="M18">
         <v>0.05</v>
       </c>
+      <c r="N18">
+        <f>SQRT(((1/B18)^4)*(L18^2)+((1/C18)^4)*(P18^2))</f>
+        <v>1.4575472085157117E-2</v>
+      </c>
+      <c r="O18">
+        <f>(F18^2)*N18</f>
+        <v>5.9017228306524956</v>
+      </c>
+      <c r="P18">
+        <f>SQRT(((A18^4)/(A18-$S$2)^4)*($S$4^2)+(($S$2^4)/(A18-$S$2)^4)*(L18^2)+(0.05^2))</f>
+        <v>2.1423548888937449</v>
+      </c>
+      <c r="Q18">
+        <f>SQRT((P18^2)*(1/B18^2)+(L18^2)*(K18/(B18^2))^2)</f>
+        <v>7.0244166503693556E-2</v>
+      </c>
+      <c r="R18">
+        <f>SQRT((0.01^2)*(1/(J18^2)))</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="S18">
+        <f>(L23*H18)</f>
+        <v>0.85765853047871288</v>
+      </c>
+      <c r="T18">
+        <f>SQRT((M23^2)*(H18^2)+(Q18^2)*(L23^2))</f>
+        <v>0.16029267602097555</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19">
@@ -1498,13 +1625,17 @@
       <c r="E19">
         <v>0.64</v>
       </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F20" si="10">1/G19</f>
+        <v>-20.69950753283188</v>
+      </c>
       <c r="G19">
         <f t="shared" ref="G19:G20" si="11">1/B19+1/C19</f>
         <v>-4.831032807973238E-2</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H20" si="12">ABS(B19/C19)</f>
-        <v>2.4734650064318378</v>
+        <f t="shared" ref="H19:H20" si="12">ABS(C19/B19)</f>
+        <v>0.40429114517475079</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I20" si="13">E19/J19</f>
@@ -1523,6 +1654,34 @@
       <c r="M19">
         <v>0.05</v>
       </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N20" si="15">SQRT(((1/B19)^4)*(L19^2)+((1/C19)^4)*(P19^2))</f>
+        <v>1.5995205145334007E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O20" si="16">(F19^2)*N19</f>
+        <v>6.8534593441093978</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P20" si="17">SQRT(((A19^4)/(A19-$S$2)^4)*($S$4^2)+(($S$2^4)/(A19-$S$2)^4)*(L19^2)+(0.05^2))</f>
+        <v>2.4320668049309142</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q20" si="18">SQRT((P19^2)*(1/B19^2)+(L19^2)*(K19/(B19^2))^2)</f>
+        <v>7.9742649571477253E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R20" si="19">SQRT((0.01^2)*(1/(J19^2)))</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:S20" si="20">(L24*H19)</f>
+        <v>0.72281640860516749</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:T20" si="21">SQRT((M24^2)*(H19^2)+(Q19^2)*(L24^2))</f>
+        <v>0.15007011254345279</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20">
@@ -1540,13 +1699,17 @@
       <c r="E20">
         <v>0.55000000000000004</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="10"/>
+        <v>-20.623010362162113</v>
+      </c>
       <c r="G20">
         <f t="shared" si="11"/>
         <v>-4.8489526137985232E-2</v>
       </c>
       <c r="H20">
         <f t="shared" si="12"/>
-        <v>2.4789305472085497</v>
+        <v>0.40339976492123608</v>
       </c>
       <c r="I20">
         <f t="shared" si="13"/>
@@ -1565,20 +1728,161 @@
       <c r="M20">
         <v>0.05</v>
       </c>
+      <c r="N20">
+        <f t="shared" si="15"/>
+        <v>1.7798814458543727E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="16"/>
+        <v>7.5699880829563391</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="17"/>
+        <v>2.6943875054366582</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="18"/>
+        <v>8.8343049177346797E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="19"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="20"/>
+        <v>0.62904057162512839</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="21"/>
+        <v>0.14428727260071106</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="L23">
+        <f>((D18-C18)/A18)^(-1)</f>
+        <v>2.1576370052120888</v>
+      </c>
+      <c r="M23">
+        <f>SQRT(((1/(D18-C18))^2)*(M18^2)+((A18/((D18-C18)^2))^2)*((0.05^2)+(P18^2)))</f>
+        <v>0.13127385116200932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="L24">
+        <f t="shared" ref="L24:L25" si="22">((D19-C19)/A19)^(-1)</f>
+        <v>1.7878610927596186</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:M25" si="23">SQRT(((1/(D19-C19))^2)*(M19^2)+((A19/((D19-C19)^2))^2)*((0.05^2)+(P19^2)))</f>
+        <v>0.11588867173102801</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="L25">
+        <f t="shared" si="22"/>
+        <v>1.5593478884350582</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="23"/>
+        <v>0.10638266906018939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="L27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="L28" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="L29">
+        <f>F18/(O18^2)</f>
+        <v>-0.57772408168156919</v>
+      </c>
+      <c r="M29">
+        <f>1/(O18^2)</f>
+        <v>2.8710607449321131E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="L30">
+        <f t="shared" ref="L30:L31" si="24">F19/(O19^2)</f>
+        <v>-0.44069724094707652</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30:M31" si="25">1/(O19^2)</f>
+        <v>2.1290228293986139E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="L31">
+        <f t="shared" si="24"/>
+        <v>-0.35988327863248054</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="25"/>
+        <v>1.7450569645873486E-2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="11:16">
+      <c r="K33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33">
+        <f>SUM(L29:L32)</f>
+        <v>-1.3783046012611262</v>
+      </c>
+      <c r="M33">
+        <f>SUM(M29:M32)</f>
+        <v>6.7451405389180763E-2</v>
+      </c>
+      <c r="O33">
+        <f>L33/M33</f>
+        <v>-20.434038302220564</v>
+      </c>
+      <c r="P33">
+        <f>1/(SQRT(M33))</f>
+        <v>3.850388030121052</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/O1/Analisi/ottica 1.xlsx
+++ b/O1/Analisi/ottica 1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="lente convergente e divergente" sheetId="1" r:id="rId1"/>
     <sheet name="Regressione lineare (3)" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio2" sheetId="3" r:id="rId3"/>
-    <sheet name="Foglio3" sheetId="4" r:id="rId4"/>
+    <sheet name="aberrazioni" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Foglio2"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Foglio3"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"aberrazioni"</definedName>
   </definedNames>
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" codePage="1252"/>
@@ -28,15 +28,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4" count="4">
   <si>
-    <t>sigma f</t>
+    <t>f</t>
   </si>
   <si>
     <t>sigma f</t>
   </si>
   <si>
     <t>chi 2</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -110,9 +113,9 @@
   </fills>
   <borders count="2">
     <border diagonalUp="0">
-      <left style="none">
+      <bottom style="none">
         <color rgb="FFC7C7C7"/>
-      </left>
+      </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
       <left style="none">
@@ -182,27 +185,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="L18" sqref="L18:M20"/>
+    <sheetView topLeftCell="H17" workbookViewId="0" zoomScale="75" tabSelected="1">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" style="1" width="9.142308"/>
     <col min="7" max="7" style="1" width="14.28516" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" style="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" style="1" width="9.142308"/>
+    <col min="8" max="8" style="1" width="32.9504" customWidth="1"/>
+    <col min="9" max="9" style="1" width="23.2367" customWidth="1"/>
+    <col min="10" max="11" style="1" width="9.142308"/>
     <col min="12" max="12" style="1" width="22.57031" bestFit="1" customWidth="1"/>
     <col min="13" max="13" style="1" width="16.57031" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" style="1" width="24.7128" customWidth="1"/>
+    <col min="14" max="14" style="1" width="31.99808" customWidth="1"/>
     <col min="15" max="15" style="1" width="28.42686" customWidth="1"/>
-    <col min="16" max="16" style="1" width="17.99892" customWidth="1"/>
+    <col min="16" max="16" style="1" width="34.85505" customWidth="1"/>
     <col min="17" max="17" style="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" style="1" width="12.57031" customWidth="1"/>
-    <col min="19" max="19" style="1" width="12.14062" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" style="1" width="9.142308"/>
+    <col min="18" max="18" style="1" width="19.4274" customWidth="1"/>
+    <col min="19" max="19" style="1" width="17.71322" customWidth="1"/>
+    <col min="20" max="20" style="1" width="14.28486" customWidth="1"/>
     <col min="21" max="16384" style="1"/>
   </cols>
   <sheetData>
@@ -234,8 +238,8 @@
       <c r="I1" t="str">
         <v>1/f</v>
       </c>
-      <c r="J1" t="str">
-        <v>f</v>
+      <c r="J1" t="s">
+        <v>0</v>
       </c>
       <c r="K1" t="str">
         <v>sigma q</v>
@@ -256,7 +260,7 @@
         <v>sigma 1/f</v>
       </c>
       <c r="Q1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S1" t="str">
         <v>f media circa</v>
@@ -299,31 +303,31 @@
         <v>24.1441481897278</v>
       </c>
       <c r="K2">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L2">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M2">
         <v>0.05</v>
-      </c>
-      <c r="L2">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M2">
-        <v>0.01</v>
       </c>
       <c r="N2">
         <f>SQRT(((1/A2)^2)*(K2^2)+((D2/(A2^2))^2)*(L2^2))</f>
-        <v>0.00916892647454575</v>
+        <v>0.0183378529490915</v>
       </c>
       <c r="O2">
         <f>SQRT(((1/E2)^2)*(M2^2))</f>
-        <v>0.00217864923747277</v>
+        <v>0.0108932461873638</v>
       </c>
       <c r="P2">
         <f>SQRT(((1/A2)^2)*(L2^2)+((1/D2)^2)*(K2^2))</f>
-        <v>0.00176809563084645</v>
+        <v>0.00353619126169291</v>
       </c>
       <c r="Q2">
         <f>(J2^2)*P2</f>
-        <v>1.03069347575101</v>
+        <v>2.06138695150201</v>
       </c>
       <c r="S2">
         <f>SUM(J2:J13)/12</f>
@@ -367,31 +371,31 @@
         <v>24.1452122062434</v>
       </c>
       <c r="K3">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M3">
         <v>0.05</v>
-      </c>
-      <c r="L3">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M3">
-        <v>0.01</v>
       </c>
       <c r="N3">
         <f>SQRT(((1/A3)^2)*(K3^2)+((D3/(A3^2))^2)*(L3^2))</f>
-        <v>0.0061096301693578</v>
+        <v>0.0122192603387156</v>
       </c>
       <c r="O3">
         <f>SQRT(((1/E3)^2)*(M3^2))</f>
-        <v>0.00310077519379845</v>
+        <v>0.0155038759689922</v>
       </c>
       <c r="P3">
         <f>SQRT(((1/A3)^2)*(L3^2)+((1/D3)^2)*(K3^2))</f>
-        <v>0.00168390701759481</v>
+        <v>0.00336781403518962</v>
       </c>
       <c r="Q3">
         <f>(J3^2)*P3</f>
-        <v>0.981703094933221</v>
+        <v>1.96340618986645</v>
       </c>
       <c r="S3" t="str">
         <v>sigma</v>
@@ -434,34 +438,35 @@
         <v>24.16911351785</v>
       </c>
       <c r="K4">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L4">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M4">
         <v>0.05</v>
-      </c>
-      <c r="L4">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M4">
-        <v>0.01</v>
       </c>
       <c r="N4">
         <f>SQRT(((1/A4)^2)*(K4^2)+((D4/(A4^2))^2)*(L4^2))</f>
-        <v>0.00453277571290891</v>
+        <v>0.00906555142581782</v>
       </c>
       <c r="O4">
         <f>SQRT(((1/E4)^2)*(M4^2))</f>
-        <v>0.00401606425702811</v>
+        <v>0.0200803212851406</v>
       </c>
       <c r="P4">
         <f>SQRT(((1/A4)^2)*(L4^2)+((1/D4)^2)*(K4^2))</f>
-        <v>0.00161867221974319</v>
+        <v>0.00323734443948638</v>
       </c>
       <c r="Q4">
         <f>(J4^2)*P4</f>
-        <v>0.945540980556782</v>
+        <v>1.89108196111356</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <f>2/SQRT(12)</f>
+        <v>0.577350269189626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -494,31 +499,31 @@
         <v>24.0732444444444</v>
       </c>
       <c r="K5">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L5">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M5">
         <v>0.05</v>
-      </c>
-      <c r="L5">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M5">
-        <v>0.01</v>
       </c>
       <c r="N5">
         <f>SQRT(((1/A5)^2)*(K5^2)+((D5/(A5^2))^2)*(L5^2))</f>
-        <v>0.00349286286627672</v>
+        <v>0.00698572573255344</v>
       </c>
       <c r="O5">
         <f>SQRT(((1/E5)^2)*(M5^2))</f>
-        <v>0.0054054054054054</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="P5">
         <f>SQRT(((1/A5)^2)*(L5^2)+((1/D5)^2)*(K5^2))</f>
-        <v>0.00157088806743631</v>
+        <v>0.00314177613487262</v>
       </c>
       <c r="Q5">
         <f>(J5^2)*P5</f>
-        <v>0.910362777804559</v>
+        <v>1.82072555560912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -551,31 +556,31 @@
         <v>24.1149295774648</v>
       </c>
       <c r="K6">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L6">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M6">
         <v>0.05</v>
-      </c>
-      <c r="L6">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M6">
-        <v>0.01</v>
       </c>
       <c r="N6">
         <f>SQRT(((1/A6)^2)*(K6^2)+((D6/(A6^2))^2)*(L6^2))</f>
-        <v>0.00289277802587085</v>
+        <v>0.0057855560517417</v>
       </c>
       <c r="O6">
         <f>SQRT(((1/E6)^2)*(M6^2))</f>
-        <v>0.00591715976331361</v>
+        <v>0.0295857988165681</v>
       </c>
       <c r="P6">
         <f>SQRT(((1/A6)^2)*(L6^2)+((1/D6)^2)*(K6^2))</f>
-        <v>0.0015336711085436</v>
+        <v>0.0030673422170872</v>
       </c>
       <c r="Q6">
         <f>(J6^2)*P6</f>
-        <v>0.891875496766772</v>
+        <v>1.78375099353354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -608,31 +613,31 @@
         <v>24.0117878192534</v>
       </c>
       <c r="K7">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L7">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M7">
         <v>0.05</v>
-      </c>
-      <c r="L7">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M7">
-        <v>0.01</v>
       </c>
       <c r="N7">
         <f>SQRT(((1/A7)^2)*(K7^2)+((D7/(A7^2))^2)*(L7^2))</f>
-        <v>0.00245740310834894</v>
+        <v>0.00491480621669788</v>
       </c>
       <c r="O7">
         <f>SQRT(((1/E7)^2)*(M7^2))</f>
-        <v>0.00694444444444444</v>
+        <v>0.0347222222222222</v>
       </c>
       <c r="P7">
         <f>SQRT(((1/A7)^2)*(L7^2)+((1/D7)^2)*(K7^2))</f>
-        <v>0.00151344826355459</v>
+        <v>0.00302689652710917</v>
       </c>
       <c r="Q7">
         <f>(J7^2)*P7</f>
-        <v>0.872602742324985</v>
+        <v>1.74520548464998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -667,31 +672,31 @@
         <v>24.036253776435</v>
       </c>
       <c r="K8">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L8">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M8">
         <v>0.05</v>
-      </c>
-      <c r="L8">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M8">
-        <v>0.01</v>
       </c>
       <c r="N8">
         <f>SQRT(((1/A8)^2)*(K8^2)+((D8/(A8^2))^2)*(L8^2))</f>
-        <v>0.00214227811606302</v>
+        <v>0.00428455623212604</v>
       </c>
       <c r="O8">
         <f>SQRT(((1/E8)^2)*(M8^2))</f>
-        <v>0.0078125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P8">
         <f>SQRT(((1/A8)^2)*(L8^2)+((1/D8)^2)*(K8^2))</f>
-        <v>0.0014941016604337</v>
+        <v>0.00298820332086739</v>
       </c>
       <c r="Q8">
         <f>(J8^2)*P8</f>
-        <v>0.863204527885155</v>
+        <v>1.72640905577032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -725,31 +730,31 @@
         <v>24.0503582395087</v>
       </c>
       <c r="K9">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L9">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M9">
         <v>0.05</v>
-      </c>
-      <c r="L9">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M9">
-        <v>0.01</v>
       </c>
       <c r="N9">
         <f>SQRT(((1/A9)^2)*(K9^2)+((D9/(A9^2))^2)*(L9^2))</f>
-        <v>0.00190006058787559</v>
+        <v>0.00380012117575119</v>
       </c>
       <c r="O9">
         <f>SQRT(((1/E9)^2)*(M9^2))</f>
-        <v>0.00884955752212389</v>
+        <v>0.0442477876106195</v>
       </c>
       <c r="P9">
         <f>SQRT(((1/A9)^2)*(L9^2)+((1/D9)^2)*(K9^2))</f>
-        <v>0.00148128584992851</v>
+        <v>0.00296257169985703</v>
       </c>
       <c r="Q9">
         <f>(J9^2)*P9</f>
-        <v>0.856804963514416</v>
+        <v>1.71360992702883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -783,31 +788,31 @@
         <v>24.0016580310881</v>
       </c>
       <c r="K10">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M10">
         <v>0.05</v>
-      </c>
-      <c r="L10">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M10">
-        <v>0.01</v>
       </c>
       <c r="N10">
         <f>SQRT(((1/A10)^2)*(K10^2)+((D10/(A10^2))^2)*(L10^2))</f>
-        <v>0.00170425138230572</v>
+        <v>0.00340850276461143</v>
       </c>
       <c r="O10">
         <f>SQRT(((1/E10)^2)*(M10^2))</f>
-        <v>0.0101010101010101</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="P10">
         <f>SQRT(((1/A10)^2)*(L10^2)+((1/D10)^2)*(K10^2))</f>
-        <v>0.00147679810304248</v>
+        <v>0.00295359620608495</v>
       </c>
       <c r="Q10">
         <f>(J10^2)*P10</f>
-        <v>0.850753243116237</v>
+        <v>1.70150648623247</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -841,31 +846,31 @@
         <v>24.0112382934443</v>
       </c>
       <c r="K11">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L11">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M11">
         <v>0.05</v>
-      </c>
-      <c r="L11">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M11">
-        <v>0.01</v>
       </c>
       <c r="N11">
         <f>SQRT(((1/A11)^2)*(K11^2)+((D11/(A11^2))^2)*(L11^2))</f>
-        <v>0.0015451016516083</v>
+        <v>0.00309020330321659</v>
       </c>
       <c r="O11">
         <f>SQRT(((1/E11)^2)*(M11^2))</f>
-        <v>0.0109289617486339</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="P11">
         <f>SQRT(((1/A11)^2)*(L11^2)+((1/D11)^2)*(K11^2))</f>
-        <v>0.00147287128984612</v>
+        <v>0.00294574257969224</v>
       </c>
       <c r="Q11">
         <f>(J11^2)*P11</f>
-        <v>0.849168571842416</v>
+        <v>1.69833714368484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -899,31 +904,31 @@
         <v>24.0691588785047</v>
       </c>
       <c r="K12">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L12">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M12">
         <v>0.05</v>
-      </c>
-      <c r="L12">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M12">
-        <v>0.01</v>
       </c>
       <c r="N12">
         <f>SQRT(((1/A12)^2)*(K12^2)+((D12/(A12^2))^2)*(L12^2))</f>
-        <v>0.00142402054023932</v>
+        <v>0.00284804108047864</v>
       </c>
       <c r="O12">
         <f>SQRT(((1/E12)^2)*(M12^2))</f>
-        <v>0.0117647058823529</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="P12">
         <f>SQRT(((1/A12)^2)*(L12^2)+((1/D12)^2)*(K12^2))</f>
-        <v>0.00146908448138613</v>
+        <v>0.00293816896277227</v>
       </c>
       <c r="Q12">
         <f>(J12^2)*P12</f>
-        <v>0.851076499124477</v>
+        <v>1.70215299824895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -956,442 +961,577 @@
         <v>23.9964693665628</v>
       </c>
       <c r="K13">
-        <f>0.05</f>
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L13">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="M13">
         <v>0.05</v>
-      </c>
-      <c r="L13">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="M13">
-        <v>0.01</v>
       </c>
       <c r="N13">
         <f>SQRT(((1/A13)^2)*(K13^2)+((D13/(A13^2))^2)*(L13^2))</f>
-        <v>0.00131629397169578</v>
+        <v>0.00263258794339156</v>
       </c>
       <c r="O13">
         <f>SQRT(((1/E13)^2)*(M13^2))</f>
-        <v>0.0128205128205128</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="P13">
         <f>SQRT(((1/A13)^2)*(L13^2)+((1/D13)^2)*(K13^2))</f>
-        <v>0.00147575689778227</v>
+        <v>0.00295151379556455</v>
       </c>
       <c r="Q13">
         <f>(J13^2)*P13</f>
-        <v>0.849785894399322</v>
+        <v>1.69957178879865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="Q14" t="str">
+        <v> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>49.1</v>
+      </c>
+      <c r="D15">
+        <v>46.3</v>
+      </c>
+      <c r="I15">
+        <f>1/D15+1/A15</f>
+        <v>0.041964870916233</v>
+      </c>
+      <c r="J15">
+        <f>1/I15</f>
+        <v>23.8294549266247</v>
+      </c>
+      <c r="K15">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L15">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="P15">
+        <f>SQRT(((1/A15)^2)*(L15^2)+((1/D15)^2)*(K15^2))</f>
+        <v>0.00296864229091548</v>
+      </c>
+      <c r="Q15">
+        <f>(J15^2)*P15</f>
+        <v>1.68572251314321</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" t="str">
-        <v>DIVERGENTE</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="str">
-        <v>p conv</v>
-      </c>
-      <c r="B17" t="str">
-        <v>q div</v>
-      </c>
-      <c r="C17" t="str">
-        <v>x div</v>
-      </c>
-      <c r="D17" t="str">
-        <v>D</v>
-      </c>
-      <c r="E17" t="str">
-        <v>h1</v>
-      </c>
-      <c r="F17" t="str">
-        <v>f div</v>
-      </c>
-      <c r="G17" t="str">
-        <v>1/f div</v>
-      </c>
-      <c r="H17" t="str">
-        <v>m div con q e p</v>
-      </c>
-      <c r="I17" t="str">
-        <v>m tot sperimentale</v>
-      </c>
-      <c r="J17" t="str">
-        <v>h</v>
-      </c>
-      <c r="K17" t="str">
-        <v>x</v>
-      </c>
-      <c r="L17" t="str">
-        <v>sigma q div</v>
-      </c>
-      <c r="M17" t="str">
-        <v>sigma p conv</v>
-      </c>
-      <c r="N17" t="str">
-        <v>sigma 1/f div</v>
-      </c>
-      <c r="O17" t="s">
-        <v>1</v>
-      </c>
-      <c r="P17" t="str">
-        <v>sigma x</v>
-      </c>
-      <c r="Q17" t="str">
-        <v>sigma m div</v>
-      </c>
-      <c r="R17" t="str">
-        <v>sigma m tot sperimentale</v>
-      </c>
-      <c r="S17" t="str">
-        <v>m tot teo</v>
-      </c>
-      <c r="T17" t="str">
-        <v>sigma m teo</v>
+      <c r="A16">
+        <v>49.1</v>
+      </c>
+      <c r="D16">
+        <v>47.4</v>
+      </c>
+      <c r="I16">
+        <f>1/D16+1/A16</f>
+        <v>0.0414636451915062</v>
+      </c>
+      <c r="J16">
+        <f>1/I16</f>
+        <v>24.1175129533679</v>
+      </c>
+      <c r="K16">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L16">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="P16">
+        <f>SQRT(((1/A16)^2)*(L16^2)+((1/D16)^2)*(K16^2))</f>
+        <v>0.00293237738559971</v>
+      </c>
+      <c r="Q16">
+        <f>(J16^2)*P16</f>
+        <v>1.70563029986209</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18">
-        <v>76</v>
-      </c>
-      <c r="B18">
-        <v>30.5</v>
-      </c>
-      <c r="C18">
-        <v>-12.1237191967003</v>
+        <v>47.3</v>
       </c>
       <c r="D18">
-        <v>23.1</v>
-      </c>
-      <c r="E18">
-        <v>0.785</v>
-      </c>
-      <c r="F18">
-        <f>1/G18</f>
-        <v>-20.1223217830325</v>
-      </c>
-      <c r="G18">
-        <f>1/B18+1/C18</f>
-        <v>-0.0496960545001929</v>
-      </c>
-      <c r="H18">
-        <f>ABS(C18/B18)</f>
-        <v>0.397498990055748</v>
+        <v>48.8</v>
       </c>
       <c r="I18">
-        <f>E18/J18</f>
-        <v>0.872222222222222</v>
+        <f>1/D18+1/A18</f>
+        <v>0.0416334523273143</v>
       </c>
       <c r="J18">
-        <v>0.9</v>
+        <f>1/I18</f>
+        <v>24.0191467221644</v>
       </c>
       <c r="K18">
-        <f>$S$2*A18/(A18-$S$2)-D18</f>
-        <v>12.1237191967003</v>
+        <f>0.1</f>
+        <v>0.1</v>
       </c>
       <c r="L18">
-        <v>0.05</v>
-      </c>
-      <c r="M18">
-        <v>0.05</v>
-      </c>
-      <c r="N18">
-        <f>SQRT(((1/B18)^4)*(L18^2)+((1/C18)^4)*(P18^2))</f>
-        <v>0.0145754720851571</v>
-      </c>
-      <c r="O18">
-        <f>(F18^2)*N18</f>
-        <v>5.90172283065251</v>
+        <f>0.1</f>
+        <v>0.1</v>
       </c>
       <c r="P18">
-        <f>SQRT(((A18^4)/(A18-$S$2)^4)*($S$4^2)+(($S$2^4)/(A18-$S$2)^4)*(L18^2)+(0.05^2))</f>
-        <v>2.14235488889374</v>
+        <f>SQRT(((1/A18)^2)*(L18^2)+((1/D18)^2)*(K18^2))</f>
+        <v>0.002944288243545</v>
       </c>
       <c r="Q18">
-        <f>SQRT((P18^2)*(1/B18^2)+(L18^2)*(K18/(B18^2))^2)</f>
-        <v>0.0702441665036936</v>
-      </c>
-      <c r="R18">
-        <f>SQRT((0.01^2)*(1/(J18^2)))</f>
-        <v>0.0111111111111111</v>
-      </c>
-      <c r="S18">
-        <f>(L23*H18)</f>
-        <v>0.857658530478713</v>
-      </c>
-      <c r="T18">
-        <f>SQRT((M23^2)*(H18^2)+(Q18^2)*(L23^2))</f>
-        <v>0.160292676020976</v>
+        <f>(J18^2)*P18</f>
+        <v>1.69861703415968</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19">
+        <v>47.3</v>
+      </c>
+      <c r="D19">
+        <v>49.7</v>
+      </c>
+      <c r="I19">
+        <f>1/D19+1/A19</f>
+        <v>0.0412623733947022</v>
+      </c>
+      <c r="J19">
+        <f>1/I19</f>
+        <v>24.2351546391753</v>
+      </c>
+      <c r="K19">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L19">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="P19">
+        <f>SQRT(((1/A19)^2)*(L19^2)+((1/D19)^2)*(K19^2))</f>
+        <v>0.00291858334249008</v>
+      </c>
+      <c r="Q19">
+        <f>(J19^2)*P19</f>
+        <v>1.7142086800477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="str">
+        <v>DIVERGENTE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="str">
+        <v>p conv</v>
+      </c>
+      <c r="B23" t="str">
+        <v>q div</v>
+      </c>
+      <c r="C23" t="str">
+        <v>x div</v>
+      </c>
+      <c r="D23" t="str">
+        <v>D</v>
+      </c>
+      <c r="E23" t="str">
+        <v>h1</v>
+      </c>
+      <c r="F23" t="str">
+        <v>f div</v>
+      </c>
+      <c r="G23" t="str">
+        <v>1/f div</v>
+      </c>
+      <c r="H23" t="str">
+        <v>m div con q e p</v>
+      </c>
+      <c r="I23" t="str">
+        <v>m tot sperimentale</v>
+      </c>
+      <c r="J23" t="str">
+        <v>h</v>
+      </c>
+      <c r="K23" t="str">
+        <v>x</v>
+      </c>
+      <c r="L23" t="str">
+        <v>sigma q div</v>
+      </c>
+      <c r="M23" t="str">
+        <v>sigma p conv</v>
+      </c>
+      <c r="N23" t="str">
+        <v>sigma 1/f div</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="str">
+        <v>sigma x</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>sigma m div</v>
+      </c>
+      <c r="R23" t="str">
+        <v>sigma m tot sperimentale</v>
+      </c>
+      <c r="S23" t="str">
+        <v>m tot teo</v>
+      </c>
+      <c r="T23" t="str">
+        <v>sigma m teo</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>76</v>
+      </c>
+      <c r="B24">
+        <v>30.5</v>
+      </c>
+      <c r="C24">
+        <v>-12.1237191967003</v>
+      </c>
+      <c r="D24">
+        <v>23.1</v>
+      </c>
+      <c r="E24">
+        <v>0.785</v>
+      </c>
+      <c r="F24">
+        <f>1/G24</f>
+        <v>-20.1223217830325</v>
+      </c>
+      <c r="G24">
+        <f>1/B24+1/C24</f>
+        <v>-0.0496960545001929</v>
+      </c>
+      <c r="H24">
+        <f>C24/A24</f>
+        <v>-0.159522621009214</v>
+      </c>
+      <c r="I24">
+        <f>E24/J24</f>
+        <v>0.872222222222222</v>
+      </c>
+      <c r="J24">
+        <v>0.9</v>
+      </c>
+      <c r="K24">
+        <f>$S$2*A24/(A24-$S$2)-D24</f>
+        <v>12.1237191967003</v>
+      </c>
+      <c r="L24">
+        <v>0.1</v>
+      </c>
+      <c r="M24">
+        <v>0.1</v>
+      </c>
+      <c r="N24">
+        <f>SQRT(((1/B24)^4)*(L24^2)+((1/C24)^4)*(P24^2))</f>
+        <v>0.00842152659924668</v>
+      </c>
+      <c r="O24">
+        <f>(F24^2)*N24</f>
+        <v>3.40994209376825</v>
+      </c>
+      <c r="P24">
+        <f>SQRT(((A24^4)/(A24-$S$2)^4)*($S$4^2)+(($S$2^4)/(A24-$S$2)^4)*(L24^2)+(0.05^2))</f>
+        <v>1.2377335935648</v>
+      </c>
+      <c r="Q24">
+        <f>SQRT((P24^2)*(1/B24^2)+(L24^2)*(K24/(B24^2))^2)</f>
+        <v>0.0406023512929126</v>
+      </c>
+      <c r="R24">
+        <f>SQRT((0.02^2)*(1/(J24^2)))</f>
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="S24">
+        <f>(L29*H24)</f>
+        <v>-0.138129648195606</v>
+      </c>
+      <c r="T24">
+        <f>SQRT((M29^2)*(H24^2)+(Q24^2)*(L29^2))</f>
+        <v>0.0371854993100195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
         <v>67.1</v>
       </c>
-      <c r="B19">
+      <c r="B25">
         <v>30.5</v>
       </c>
-      <c r="C19">
+      <c r="C25">
         <v>-12.3308799278299</v>
       </c>
-      <c r="D19">
+      <c r="D25">
         <v>25.2</v>
       </c>
-      <c r="E19">
+      <c r="E25">
         <v>0.64</v>
       </c>
-      <c r="F19">
-        <f>1/G19</f>
+      <c r="F25">
+        <f>1/G25</f>
         <v>-20.6995075328319</v>
       </c>
-      <c r="G19">
-        <f>1/B19+1/C19</f>
+      <c r="G25">
+        <f>1/B25+1/C25</f>
         <v>-0.0483103280797324</v>
       </c>
-      <c r="H19">
-        <f>ABS(C19/B19)</f>
+      <c r="H25">
+        <f>ABS(C25/B25)</f>
         <v>0.404291145174751</v>
       </c>
-      <c r="I19">
-        <f>E19/J19</f>
+      <c r="I25">
+        <f>E25/J25</f>
         <v>0.711111111111111</v>
       </c>
-      <c r="J19">
+      <c r="J25">
         <v>0.9</v>
       </c>
-      <c r="K19">
-        <f>$S$2*A19/(A19-$S$2)-D19</f>
+      <c r="K25">
+        <f>$S$2*A25/(A25-$S$2)-D25</f>
         <v>12.3308799278299</v>
       </c>
-      <c r="L19">
-        <v>0.05</v>
-      </c>
-      <c r="M19">
-        <v>0.05</v>
-      </c>
-      <c r="N19">
-        <f>SQRT(((1/B19)^4)*(L19^2)+((1/C19)^4)*(P19^2))</f>
-        <v>0.015995205145334</v>
-      </c>
-      <c r="O19">
-        <f>(F19^2)*N19</f>
-        <v>6.85345934410941</v>
-      </c>
-      <c r="P19">
-        <f>SQRT(((A19^4)/(A19-$S$2)^4)*($S$4^2)+(($S$2^4)/(A19-$S$2)^4)*(L19^2)+(0.05^2))</f>
-        <v>2.43206680493091</v>
-      </c>
-      <c r="Q19">
-        <f>SQRT((P19^2)*(1/B19^2)+(L19^2)*(K19/(B19^2))^2)</f>
-        <v>0.0797426495714773</v>
-      </c>
-      <c r="R19">
-        <f>SQRT((0.01^2)*(1/(J19^2)))</f>
-        <v>0.0111111111111111</v>
-      </c>
-      <c r="S19">
-        <f>(L24*H19)</f>
-        <v>0.722816408605167</v>
-      </c>
-      <c r="T19">
-        <f>SQRT((M24^2)*(H19^2)+(Q19^2)*(L24^2))</f>
-        <v>0.150070112543453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20">
+      <c r="L25">
+        <v>0.1</v>
+      </c>
+      <c r="M25">
+        <v>0.1</v>
+      </c>
+      <c r="N25">
+        <f>SQRT(((1/B25)^4)*(L25^2)+((1/C25)^4)*(P25^2))</f>
+        <v>0.00924141138545923</v>
+      </c>
+      <c r="O25">
+        <f>(F25^2)*N25</f>
+        <v>3.95966395160054</v>
+      </c>
+      <c r="P25">
+        <f>SQRT(((A25^4)/(A25-$S$2)^4)*($S$4^2)+(($S$2^4)/(A25-$S$2)^4)*(L25^2)+(0.05^2))</f>
+        <v>1.40506707592888</v>
+      </c>
+      <c r="Q25">
+        <f>SQRT((P25^2)*(1/B25^2)+(L25^2)*(K25/(B25^2))^2)</f>
+        <v>0.046086839513113</v>
+      </c>
+      <c r="R25">
+        <f>SQRT((0.02^2)*(1/(J25^2)))</f>
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="S25">
+        <f>(L30*H25)</f>
+        <v>0.722816408605168</v>
+      </c>
+      <c r="T25">
+        <f>SQRT((M30^2)*(H25^2)+(Q25^2)*(L30^2))</f>
+        <v>0.0867387097736923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
         <v>61.6</v>
       </c>
-      <c r="B20">
+      <c r="B26">
         <v>30.5</v>
       </c>
-      <c r="C20">
+      <c r="C26">
         <v>-12.3036928300977</v>
       </c>
-      <c r="D20">
+      <c r="D26">
         <v>27.2</v>
       </c>
-      <c r="E20">
+      <c r="E26">
         <v>0.55</v>
       </c>
-      <c r="F20">
-        <f>1/G20</f>
+      <c r="F26">
+        <f>1/G26</f>
         <v>-20.6230103621621</v>
       </c>
-      <c r="G20">
-        <f>1/B20+1/C20</f>
+      <c r="G26">
+        <f>1/B26+1/C26</f>
         <v>-0.0484895261379852</v>
       </c>
-      <c r="H20">
-        <f>ABS(C20/B20)</f>
+      <c r="H26">
+        <f>ABS(C26/B26)</f>
         <v>0.403399764921236</v>
       </c>
-      <c r="I20">
-        <f>E20/J20</f>
+      <c r="I26">
+        <f>E26/J26</f>
         <v>0.611111111111111</v>
       </c>
-      <c r="J20">
+      <c r="J26">
         <v>0.9</v>
       </c>
-      <c r="K20">
-        <f>$S$2*A20/(A20-$S$2)-D20</f>
+      <c r="K26">
+        <f>$S$2*A26/(A26-$S$2)-D26</f>
         <v>12.3036928300976</v>
       </c>
-      <c r="L20">
-        <v>0.05</v>
-      </c>
-      <c r="M20">
-        <v>0.05</v>
-      </c>
-      <c r="N20">
-        <f>SQRT(((1/B20)^4)*(L20^2)+((1/C20)^4)*(P20^2))</f>
-        <v>0.0177988144585437</v>
-      </c>
-      <c r="O20">
-        <f>(F20^2)*N20</f>
-        <v>7.56998808295633</v>
-      </c>
-      <c r="P20">
-        <f>SQRT(((A20^4)/(A20-$S$2)^4)*($S$4^2)+(($S$2^4)/(A20-$S$2)^4)*(L20^2)+(0.05^2))</f>
-        <v>2.69438750543666</v>
-      </c>
-      <c r="Q20">
-        <f>SQRT((P20^2)*(1/B20^2)+(L20^2)*(K20/(B20^2))^2)</f>
-        <v>0.0883430491773469</v>
-      </c>
-      <c r="R20">
-        <f>SQRT((0.01^2)*(1/(J20^2)))</f>
-        <v>0.0111111111111111</v>
-      </c>
-      <c r="S20">
-        <f>(L25*H20)</f>
+      <c r="L26">
+        <v>0.1</v>
+      </c>
+      <c r="M26">
+        <v>0.1</v>
+      </c>
+      <c r="N26">
+        <f>SQRT(((1/B26)^4)*(L26^2)+((1/C26)^4)*(P26^2))</f>
+        <v>0.0102834936522391</v>
+      </c>
+      <c r="O26">
+        <f>(F26^2)*N26</f>
+        <v>4.3736578399602</v>
+      </c>
+      <c r="P26">
+        <f>SQRT(((A26^4)/(A26-$S$2)^4)*($S$4^2)+(($S$2^4)/(A26-$S$2)^4)*(L26^2)+(0.05^2))</f>
+        <v>1.55663902714289</v>
+      </c>
+      <c r="Q26">
+        <f>SQRT((P26^2)*(1/B26^2)+(L26^2)*(K26/(B26^2))^2)</f>
+        <v>0.0510544800151629</v>
+      </c>
+      <c r="R26">
+        <f>SQRT((0.02^2)*(1/(J26^2)))</f>
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="S26">
+        <f>(L31*H26)</f>
         <v>0.629040571625128</v>
       </c>
-      <c r="T20">
-        <f>SQRT((M25^2)*(H20^2)+(Q20^2)*(L25^2))</f>
-        <v>0.144287272600711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="B22" t="str">
+      <c r="T26">
+        <f>SQRT((M31^2)*(H26^2)+(Q26^2)*(L31^2))</f>
+        <v>0.0833912946710892</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="B28" t="str">
         <v>chiaramente nel caso della divergente m è l'ingrandimento del sistema di lenti, non della singola lente</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L28" t="str">
         <v>m conv</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M28" t="str">
         <v>sigma m conv</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="B23" t="str">
+      <c r="R28"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="B29" t="str">
         <v>il prodotto totale è il prodotto dell'ingrandimento delle singole lenti.</v>
       </c>
-      <c r="L23">
-        <f>((D18-C18)/A18)^(-1)</f>
-        <v>2.15763700521209</v>
-      </c>
-      <c r="M23">
-        <f>SQRT(((1/(D18-C18))^2)*(M18^2)+((A18/((D18-C18)^2))^2)*((0.05^2)+(P18^2)))</f>
-        <v>0.131273851162009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="L24">
-        <f>((D19-C19)/A19)^(-1)</f>
-        <v>1.78786109275962</v>
-      </c>
-      <c r="M24">
-        <f>SQRT(((1/(D19-C19))^2)*(M19^2)+((A19/((D19-C19)^2))^2)*((0.05^2)+(P19^2)))</f>
-        <v>0.115888671731028</v>
-      </c>
-      <c r="O24" s="2" t="str">
-        <v>tragedia</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="L25">
-        <f>((D20-C20)/A20)^(-1)</f>
-        <v>1.55934788843506</v>
-      </c>
-      <c r="M25">
-        <f>SQRT(((1/(D20-C20))^2)*(M20^2)+((A20/((D20-C20)^2))^2)*((0.05^2)+(P20^2)))</f>
-        <v>0.106382669060189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="L27" t="str">
-        <v>media pesata delle f div</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="L28" t="str">
-        <v>xi/(sigma i quadro)</v>
-      </c>
-      <c r="M28" t="str">
-        <v>1/(sigma i quadro</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
       <c r="L29">
-        <f>F18/(O18^2)</f>
-        <v>-0.577724081681567</v>
+        <f>(B24/(D24-C24))</f>
+        <v>0.865893798144325</v>
       </c>
       <c r="M29">
-        <f>1/(O18^2)</f>
-        <v>0.028710607449321</v>
+        <f>SQRT(((1/(D24-C24))^2)*(M24^2)+((A24/((D24-C24)^2))^2)*((0.05^2)+(P24^2)))</f>
+        <v>0.0759325837655535</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="L30">
-        <f>F19/(O19^2)</f>
-        <v>-0.440697240947075</v>
+        <f>((D25-C25)/A25)^(-1)</f>
+        <v>1.78786109275962</v>
       </c>
       <c r="M30">
-        <f>1/(O19^2)</f>
-        <v>0.0212902282939861</v>
+        <f>SQRT(((1/(D25-C25))^2)*(M25^2)+((A25/((D25-C25)^2))^2)*((0.05^2)+(P25^2)))</f>
+        <v>0.0670286216654196</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <v>tragedia</v>
       </c>
     </row>
     <row r="31" spans="1:20">
+      <c r="I31"/>
       <c r="L31">
-        <f>F20/(O20^2)</f>
-        <v>-0.359883278632481</v>
+        <f>((D26-C26)/A26)^(-1)</f>
+        <v>1.55934788843506</v>
       </c>
       <c r="M31">
-        <f>1/(O20^2)</f>
-        <v>0.0174505696458735</v>
-      </c>
-      <c r="O31" t="str">
+        <f>SQRT(((1/(D26-C26))^2)*(M26^2)+((A26/((D26-C26)^2))^2)*((0.05^2)+(P26^2)))</f>
+        <v>0.0615297302889885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="L33" t="str">
+        <v>media pesata delle f div</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="L34" t="str">
+        <v>xi/(sigma i quadro)</v>
+      </c>
+      <c r="M34" t="str">
+        <v>1/(sigma i quadro</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="L35">
+        <f>F24/(O24^2)</f>
+        <v>-1.73054972065871</v>
+      </c>
+      <c r="M35">
+        <f>1/(O24^2)</f>
+        <v>0.0860014932331488</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="L36">
+        <f>F25/(O25^2)</f>
+        <v>-1.32021101990612</v>
+      </c>
+      <c r="M36">
+        <f>1/(O25^2)</f>
+        <v>0.063779827506143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="L37">
+        <f>F26/(O26^2)</f>
+        <v>-1.07810845352789</v>
+      </c>
+      <c r="M37">
+        <f>1/(O26^2)</f>
+        <v>0.0522769680369235</v>
+      </c>
+      <c r="O37" t="str">
         <v>risultati</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
-      <c r="O32" t="str">
+    <row r="38" spans="1:20">
+      <c r="O38" t="str">
         <v>media</v>
       </c>
-      <c r="P32" t="str">
+      <c r="P38" t="str">
         <v>sigma media</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
-      <c r="K33" t="str">
+    <row r="39" spans="1:20">
+      <c r="K39" t="str">
         <v>somme</v>
       </c>
-      <c r="L33">
-        <f>SUM(L29:L32)</f>
-        <v>-1.37830460126112</v>
-      </c>
-      <c r="M33">
-        <f>SUM(M29:M32)</f>
-        <v>0.0674514053891806</v>
-      </c>
-      <c r="O33">
-        <f>L33/M33</f>
-        <v>-20.4340383022206</v>
-      </c>
-      <c r="P33">
-        <f>1/(SQRT(M33))</f>
-        <v>3.85038803012106</v>
+      <c r="L39">
+        <f>SUM(L35:L38)</f>
+        <v>-4.12886919409272</v>
+      </c>
+      <c r="M39">
+        <f>SUM(M35:M38)</f>
+        <v>0.202058288776215</v>
+      </c>
+      <c r="O39">
+        <f>L39/M39</f>
+        <v>-20.4340500906922</v>
+      </c>
+      <c r="P39">
+        <f>1/(SQRT(M39))</f>
+        <v>2.22464985001398</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1550,7 @@
   <dimension ref="A1:W112"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A1" sqref="A1:V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4503,17 +4643,68 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="C12:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="13"/>
+    <col min="1" max="2" style="13"/>
+    <col min="3" max="7" style="13" width="9.142308"/>
+    <col min="8" max="16384" style="13"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="12" spans="3:7">
+      <c r="D12" t="str">
+        <v>aberrazione</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="D13" t="str">
+        <v>p</v>
+      </c>
+      <c r="E13" t="str">
+        <v>q</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" t="str">
+        <v>blu</v>
+      </c>
+      <c r="D14">
+        <v>49.1</v>
+      </c>
+      <c r="E14">
+        <v>46.3</v>
+      </c>
+      <c r="F14">
+        <f>23.82945</f>
+        <v>23.82945</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" t="str">
+        <v>rosso</v>
+      </c>
+      <c r="D15">
+        <v>49.1</v>
+      </c>
+      <c r="E15">
+        <v>47.4</v>
+      </c>
+      <c r="F15">
+        <v>24.11751</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
